--- a/Excel reader/First Contest/Unknown.xlsx
+++ b/Excel reader/First Contest/Unknown.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Hackerearth Username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Enrolment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Problems Solved</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Plagiarism Status</t>
         </is>
@@ -446,34 +451,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
+          <t>manasjain1o1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+          <t>181b196</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -482,16 +499,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
+          <t>prajjwal32</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -500,16 +522,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
+          <t>bhavya356</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -518,16 +545,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+          <t>abhiahek_098</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -536,16 +568,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+          <t>rachit2604</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -554,16 +591,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
+          <t>suyash289</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -572,16 +614,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+          <t>dinendra_181b083</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -590,16 +637,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
+          <t>ashu8051</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -608,16 +660,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
+          <t>anitejsb</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -626,16 +683,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
+          <t>anubhavuttam21</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -644,16 +706,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
+          <t>ankit3204</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -662,16 +729,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
+          <t>shubh70</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -680,16 +752,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+          <t>vibhum</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>7</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -698,34 +775,46 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
+          <t>anant307</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D16" t="b">
-        <v>0</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
+          <t>jainaagam96</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -734,16 +823,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
+          <t>avinash1273</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -752,16 +846,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
+          <t>sudhanshranjan1497</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -770,16 +869,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
+          <t>shivyansh1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -788,16 +892,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
+          <t>muskansanghai</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -806,16 +915,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
+          <t>simple22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -824,16 +938,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+          <t>karn_singh_bhati</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -842,16 +961,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+          <t>ritvikkhattri</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>7</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -860,16 +984,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>3</v>
+          <t>boomzoomand</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -878,16 +1007,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>3</v>
+          <t>dooms</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -896,16 +1030,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>3</v>
+          <t>chirag848</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -914,16 +1053,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
+          <t>mr78</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -932,16 +1076,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+          <t>kdsanskar07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>7</v>
       </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -950,16 +1099,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>3</v>
+          <t>rahul5933</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -968,16 +1122,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>3</v>
+          <t>shreyamaheshwari3110</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -986,16 +1145,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>3</v>
+          <t>manavjain678</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -1004,16 +1168,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>3</v>
+          <t>aanchal164</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -1022,16 +1191,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>3</v>
+          <t>shubhiey</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -1040,16 +1214,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>3</v>
+          <t>somak.jha</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -1058,16 +1237,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3</v>
+          <t>mayank1892</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -1076,52 +1260,71 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C37" t="inlineStr">
+          <t>sachinam1310</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D37" t="b">
-        <v>0</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" t="inlineStr">
+          <t>shashank789</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D38" t="b">
-        <v>0</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>6</v>
+          <t>animespartan9151</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1130,142 +1333,196 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" t="inlineStr">
+          <t>rampratap4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D40" t="b">
-        <v>0</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>3</v>
-      </c>
-      <c r="C41" t="inlineStr">
+          <t>shreyansh271</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D41" t="b">
-        <v>0</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>3</v>
-      </c>
-      <c r="C42" t="inlineStr">
+          <t>satyaprakash58</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D42" t="b">
-        <v>0</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>3</v>
-      </c>
-      <c r="C43" t="inlineStr">
+          <t>kshitizmishra3</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D43" t="b">
-        <v>0</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>3</v>
-      </c>
-      <c r="C44" t="inlineStr">
+          <t>rajnishkumar02</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D44" t="b">
-        <v>0</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>3</v>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>muskan384</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D45" t="b">
-        <v>0</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>3</v>
-      </c>
-      <c r="C46" t="inlineStr">
+          <t>trijal1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D46" t="b">
-        <v>0</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>6</v>
+          <t>mohit2708</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1274,88 +1531,121 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>3</v>
-      </c>
-      <c r="C48" t="inlineStr">
+          <t>kuchyaayush</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D48" t="b">
-        <v>0</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3</v>
-      </c>
-      <c r="C49" t="inlineStr">
+          <t>anjali681</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D49" t="b">
-        <v>0</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>3</v>
-      </c>
-      <c r="C50" t="inlineStr">
+          <t>vivaanmishra777</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D50" t="b">
-        <v>0</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>3</v>
-      </c>
-      <c r="C51" t="inlineStr">
+          <t>nitin905</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D51" t="b">
-        <v>0</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>6</v>
+          <t>kshitizmishra1999</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1364,16 +1654,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>6</v>
+          <t>siya28</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1382,16 +1677,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>6</v>
+          <t>bunnydotshashank20</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1400,16 +1700,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>6</v>
+          <t>abhishekmadvhiya</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1418,34 +1723,46 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3</v>
-      </c>
-      <c r="C56" t="inlineStr">
+          <t>rajaditya9151</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D56" t="b">
-        <v>0</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>6</v>
+          <t>divyansh298</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1454,16 +1771,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>6</v>
+          <t>siddhant.singhal</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1472,16 +1794,21 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>6</v>
+          <t>vermarishabh443</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1490,16 +1817,21 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>6</v>
+          <t>sharmatanish789</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1508,16 +1840,21 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>6</v>
+          <t>mishravijaya1017</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1526,16 +1863,21 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6</v>
+          <t>shaurya881s</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1544,16 +1886,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>6</v>
+          <t>siddjain9425</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1562,16 +1909,21 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>6</v>
+          <t>sahilgupta.oct06</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1580,16 +1932,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>6</v>
+          <t>harshit1703</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1598,16 +1955,21 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>6</v>
+          <t>sandhya_2699</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1616,16 +1978,21 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>6</v>
+          <t>vaishnavishekhawat</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1634,16 +2001,21 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>6</v>
+          <t>aman1652</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1652,16 +2024,21 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>6</v>
+          <t>181b228</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1670,16 +2047,21 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>6</v>
+          <t>nikhilkumarshekhawat</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1688,16 +2070,21 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>6</v>
+          <t>181b227</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1706,16 +2093,21 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>6</v>
+          <t>yash2943</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1724,16 +2116,21 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>6</v>
+          <t>neeleshkumar5</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1742,16 +2139,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>6</v>
+          <t>kajal654</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1760,16 +2162,21 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>6</v>
+          <t>shubhamtiwari8047</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1778,16 +2185,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>6</v>
+          <t>yashi.tandon2000</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1796,16 +2208,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>6</v>
+          <t>181b199</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1814,16 +2231,21 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>6</v>
+          <t>siddharth1741</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1832,16 +2254,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>6</v>
+          <t>jitendrakumar200720000</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1850,16 +2277,21 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>6</v>
+          <t>ayush2332</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1868,16 +2300,21 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>6</v>
+          <t>eiti2</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1886,16 +2323,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>6</v>
+          <t>pakhi8</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1904,16 +2346,21 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>6</v>
+          <t>rajiv189</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1922,16 +2369,21 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>6</v>
+          <t>sharmashivansh312</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1940,16 +2392,21 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>6</v>
+          <t>sachinkray</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1958,16 +2415,21 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>6</v>
+          <t>atulitseth</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1976,16 +2438,21 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>6</v>
+          <t>suhane78</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1994,16 +2461,21 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>6</v>
+          <t>ashish1848</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2012,16 +2484,21 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>6</v>
+          <t>uchicha_rohit</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2030,16 +2507,21 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>6</v>
+          <t>garimapatel</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2048,16 +2530,21 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>6</v>
+          <t>ravikumar206</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2066,16 +2553,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>6</v>
+          <t>kumaralok2502</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2084,16 +2576,21 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>6</v>
+          <t>shivam0sharma85</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2102,16 +2599,21 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>6</v>
+          <t>vaibhavsinghchauhan54</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2120,16 +2622,21 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>6</v>
+          <t>garvit143</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2138,16 +2645,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>6</v>
+          <t>ayush1786</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2156,16 +2668,21 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>6</v>
+          <t>xverses</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2174,16 +2691,21 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>6</v>
+          <t>dbhardwaj12</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2192,16 +2714,21 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>6</v>
+          <t>divanshu9</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2210,16 +2737,21 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>6</v>
+          <t>shivamyadav3390</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2228,16 +2760,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>6</v>
+          <t>manasvi33</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2246,16 +2783,21 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Incorrect Form data filled.</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>6</v>
+          <t>rgrichesh45</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Incorrect Form data filled.</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>-</t>
         </is>
